--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-14</t>
+    <t>2024-06-17T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -728,7 +728,7 @@
     <t>Schedule.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://sas.fr/fhir/StructureDefinition/FrPractitionerRoleExerciceAgregateur|http://sas.fr/fhir/StructureDefinition/FrPractitionerAgregateur) &lt;&lt;referenced, bundled&gt;&gt;
+    <t xml:space="preserve">Reference(Device|PractitionerRole|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson|http://interopsante.org/fhir/StructureDefinition/FrHealthcareService|http://interopsante.org/fhir/StructureDefinition/FrLocation|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrPractitioner) &lt;&lt;referenced, bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="161.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T12:56:05+00:00</t>
+    <t>2024-06-17T13:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:30:51+00:00</t>
+    <t>2024-06-17T14:24:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:24:56+00:00</t>
+    <t>2024-06-17T17:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T17:07:43+00:00</t>
+    <t>2024-06-18T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:49:52+00:00</t>
+    <t>2024-06-18T09:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T09:05:56+00:00</t>
+    <t>2024-06-18T15:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T15:03:51+00:00</t>
+    <t>2024-06-19T08:58:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:58:37+00:00</t>
+    <t>2024-06-19T13:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:37:34+00:00</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
